--- a/budhet.xlsx
+++ b/budhet.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\en-A013-15\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\en-A013-09\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{279C491F-3416-4D28-B8C9-281B102B57D1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{003991A1-DDA9-4155-B06D-BA199AC62644}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{D69F50E6-86D5-4449-9E68-09B84A0FC2AA}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="54">
   <si>
     <t>Income</t>
   </si>
@@ -185,15 +185,28 @@
   </si>
   <si>
     <t>Retirement</t>
+  </si>
+  <si>
+    <t>Month</t>
+  </si>
+  <si>
+    <t>Expences</t>
+  </si>
+  <si>
+    <t>Balance</t>
+  </si>
+  <si>
+    <t>Left</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="2">
-    <numFmt numFmtId="166" formatCode="&quot;$&quot;#,##0.00"/>
-    <numFmt numFmtId="167" formatCode="[$€-2]\ #,##0.00"/>
+  <numFmts count="3">
+    <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0.00"/>
+    <numFmt numFmtId="165" formatCode="[$€-2]\ #,##0.00"/>
+    <numFmt numFmtId="168" formatCode="mmmm"/>
   </numFmts>
   <fonts count="6" x14ac:knownFonts="1">
     <font>
@@ -402,23 +415,59 @@
     <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="42">
+  <cellXfs count="45">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="2" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="2" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="2" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="5" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="9" borderId="1" xfId="8" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="12" borderId="1" xfId="11" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="12" borderId="1" xfId="11" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="1" xfId="13" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="1" xfId="7" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="1" xfId="4" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="1" xfId="10" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="1" xfId="14" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="1" xfId="9" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="6" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="1" xfId="12" applyBorder="1"/>
+    <xf numFmtId="165" fontId="2" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="5" fillId="14" borderId="1" xfId="13" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="3" fillId="3" borderId="1" xfId="2" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="5" fillId="8" borderId="1" xfId="7" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="1" fillId="6" borderId="1" xfId="5" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="5" fillId="5" borderId="1" xfId="4" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="1" fillId="9" borderId="1" xfId="8" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="1" fillId="12" borderId="1" xfId="11" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="5" fillId="11" borderId="1" xfId="10" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="3" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="2" xfId="7" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="4" xfId="7" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="3" xfId="7" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="2" xfId="4" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="4" xfId="4" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="3" xfId="4" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="14" borderId="2" xfId="13" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -428,27 +477,6 @@
     <xf numFmtId="0" fontId="5" fillId="14" borderId="3" xfId="13" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="1" xfId="13" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="2" xfId="7" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="4" xfId="7" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="3" xfId="7" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="1" xfId="7" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="2" xfId="4" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="4" xfId="4" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="3" xfId="4" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="1" xfId="4" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="11" borderId="2" xfId="10" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -458,21 +486,9 @@
     <xf numFmtId="0" fontId="5" fillId="11" borderId="3" xfId="10" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="1" xfId="10" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="15" borderId="1" xfId="14" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="1" xfId="9" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="6" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="1" xfId="12" applyBorder="1"/>
-    <xf numFmtId="167" fontId="2" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="167" fontId="5" fillId="14" borderId="1" xfId="13" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="167" fontId="3" fillId="3" borderId="1" xfId="2" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="167" fontId="5" fillId="8" borderId="1" xfId="7" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="167" fontId="1" fillId="6" borderId="1" xfId="5" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="167" fontId="5" fillId="5" borderId="1" xfId="4" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="167" fontId="1" fillId="9" borderId="1" xfId="8" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="167" fontId="1" fillId="12" borderId="1" xfId="11" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="167" fontId="5" fillId="11" borderId="1" xfId="10" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="3" applyBorder="1"/>
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="1" fillId="6" borderId="1" xfId="5" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="1" fillId="9" borderId="1" xfId="8" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="15">
     <cellStyle name="40% - Accent1" xfId="5" builtinId="31"/>
@@ -491,7 +507,23 @@
     <cellStyle name="Neutral" xfId="3" builtinId="28"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="3">
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -502,6 +534,2925 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="pl-PL"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet2!$B$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Planned</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet2!$A$4:$A$6</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>Income</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Expences</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Savings</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet2!$B$4:$B$6</c:f>
+              <c:numCache>
+                <c:formatCode>[$€-2]\ #,##0.00</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>2030</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1610</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>300</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-0976-4E00-8B32-BFB95CD31A8D}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet2!$C$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Actual</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet2!$A$4:$A$6</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>Income</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Expences</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Savings</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet2!$C$4:$C$6</c:f>
+              <c:numCache>
+                <c:formatCode>[$€-2]\ #,##0.00</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-0976-4E00-8B32-BFB95CD31A8D}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="1311710848"/>
+        <c:axId val="1311712768"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="1311710848"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pl-PL"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1311712768"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1311712768"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="[$€-2]\ #,##0.00" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pl-PL"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1311710848"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="pl-PL"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="pl-PL"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>income structure</a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="pl-PL"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.360383757121784"/>
+          <c:y val="0.18202827733144425"/>
+          <c:w val="0.27582160381017456"/>
+          <c:h val="0.68889233254442317"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:doughnutChart>
+        <c:varyColors val="1"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:dPt>
+            <c:idx val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="1"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="2"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="3"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="pl-PL"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="1"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="1"/>
+            <c:leaderLines>
+              <c:spPr>
+                <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="35000"/>
+                      <a:lumOff val="65000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:round/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+            </c:leaderLines>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet2!$A$11:$A$14</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>Scholarship</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Salary</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Allowance</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Gifts</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet2!$B$11:$B$14</c:f>
+              <c:numCache>
+                <c:formatCode>[$€-2]\ #,##0.00</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>230</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1500</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>100</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-C024-4D58-804C-87A4493B0537}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="1"/>
+          <c:showBubbleSize val="0"/>
+          <c:showLeaderLines val="1"/>
+        </c:dLbls>
+        <c:firstSliceAng val="0"/>
+        <c:holeSize val="35"/>
+      </c:doughnutChart>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.17574945931920957"/>
+          <c:y val="0.83918978388154541"/>
+          <c:w val="0.64868402599223973"/>
+          <c:h val="0.14377082964370241"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="pl-PL"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="pl-PL"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>expenses structure</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="pl-PL"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.36270727132473163"/>
+          <c:y val="0.2023868902951298"/>
+          <c:w val="0.28307517583720709"/>
+          <c:h val="0.56027490054072515"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:doughnutChart>
+        <c:varyColors val="1"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:explosion val="10"/>
+          <c:dPt>
+            <c:idx val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000001-5AF5-44E8-8639-B5CB02E2AF4F}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="1"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="2"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="3"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="4"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="5"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="pl-PL"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="1"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="1"/>
+            <c:leaderLines>
+              <c:spPr>
+                <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="35000"/>
+                      <a:lumOff val="65000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:round/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+            </c:leaderLines>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet2!$E$11:$E$16</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>Accomodation</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Education</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Entertainment</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Groceries</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Transportation</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Health&amp;Beaty</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet2!$F$11:$F$16</c:f>
+              <c:numCache>
+                <c:formatCode>[$€-2]\ #,##0.00</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>529</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>440</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>300</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>50</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-5AF5-44E8-8639-B5CB02E2AF4F}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:showLeaderLines val="1"/>
+        </c:dLbls>
+        <c:firstSliceAng val="0"/>
+        <c:holeSize val="54"/>
+      </c:doughnutChart>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="7.6803526236208092E-2"/>
+          <c:y val="0.72905666168763905"/>
+          <c:w val="0.81180331770001879"/>
+          <c:h val="0.27094333831236095"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="pl-PL"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="pl-PL"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="12">
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="251">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="25400">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="251">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="25400">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>295274</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>428625</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{63B56605-E785-C1C6-FECE-34ABE4AD4FB5}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>581025</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>190500</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>157164</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name="Chart 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{33EC55DA-CA8D-79D7-247E-603FA5C8CC64}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>224117</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>1120</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>168089</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>179294</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="6" name="Chart 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D233CED8-3F5B-24F7-04EB-BFD8DBC30C4A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -815,44 +3766,44 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="28" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="2"/>
-      <c r="D1" s="6" t="s">
+      <c r="B1" s="28"/>
+      <c r="D1" s="29" t="s">
         <v>10</v>
       </c>
-      <c r="E1" s="6"/>
-      <c r="F1" s="6"/>
-      <c r="G1" s="6"/>
+      <c r="E1" s="29"/>
+      <c r="F1" s="29"/>
+      <c r="G1" s="29"/>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="6" t="s">
+      <c r="D2" s="29" t="s">
         <v>7</v>
       </c>
-      <c r="E2" s="6"/>
-      <c r="F2" s="6" t="s">
+      <c r="E2" s="29"/>
+      <c r="F2" s="29" t="s">
         <v>8</v>
       </c>
-      <c r="G2" s="6"/>
+      <c r="G2" s="29"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B3" s="4">
+      <c r="B3" s="3">
         <v>500</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="E3" s="4">
+      <c r="E3" s="3">
         <v>350</v>
       </c>
       <c r="F3" s="1"/>
@@ -862,13 +3813,13 @@
       <c r="A4" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="4">
+      <c r="B4" s="3">
         <v>400</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="E4" s="4">
+      <c r="E4" s="3">
         <v>150</v>
       </c>
       <c r="F4" s="1"/>
@@ -878,30 +3829,30 @@
       <c r="A5" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="4">
+      <c r="B5" s="3">
         <v>200</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="E5" s="4">
+      <c r="E5" s="3">
         <v>50</v>
       </c>
       <c r="F5" s="1"/>
       <c r="G5" s="1"/>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6" s="3" t="s">
+      <c r="A6" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="5">
+      <c r="B6" s="4">
         <f>SUM(B3:B5)</f>
         <v>1100</v>
       </c>
       <c r="D6" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="E6" s="4">
+      <c r="E6" s="3">
         <f>SUM(E3:E5)</f>
         <v>550</v>
       </c>
@@ -921,525 +3872,629 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{05D14AD7-A049-4019-A9AC-57E1AC3DEAE9}">
-  <dimension ref="A9:U23"/>
+  <dimension ref="A1:U23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="P21" sqref="P21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="11.42578125" customWidth="1"/>
-    <col min="2" max="2" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.5703125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="18" customWidth="1"/>
     <col min="6" max="6" width="10.85546875" customWidth="1"/>
     <col min="9" max="9" width="14.5703125" customWidth="1"/>
+    <col min="10" max="10" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="9.85546875" bestFit="1" customWidth="1"/>
     <col min="19" max="19" width="26.5703125" customWidth="1"/>
   </cols>
   <sheetData>
+    <row r="1" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A1" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="B1" s="42">
+        <f>DATE(2025,C1,1)</f>
+        <v>45627</v>
+      </c>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+    </row>
+    <row r="2" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A2" s="1"/>
+      <c r="B2" s="1"/>
+      <c r="C2" s="1"/>
+      <c r="D2" s="1"/>
+    </row>
+    <row r="3" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A3" s="1"/>
+      <c r="B3" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="C3" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="D3" s="11" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="4" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A4" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="24">
+        <f>B23</f>
+        <v>2030</v>
+      </c>
+      <c r="C4" s="24">
+        <f>C23</f>
+        <v>0</v>
+      </c>
+      <c r="D4" s="24">
+        <f>B4-C4</f>
+        <v>2030</v>
+      </c>
+    </row>
+    <row r="5" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A5" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="B5" s="24">
+        <f>F23</f>
+        <v>1610</v>
+      </c>
+      <c r="C5" s="24">
+        <f>G23</f>
+        <v>0</v>
+      </c>
+      <c r="D5" s="24">
+        <f t="shared" ref="D5:D6" si="0">B5-C5</f>
+        <v>1610</v>
+      </c>
+    </row>
+    <row r="6" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A6" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6" s="24">
+        <f>T23</f>
+        <v>300</v>
+      </c>
+      <c r="C6" s="24">
+        <f>U23</f>
+        <v>0</v>
+      </c>
+      <c r="D6" s="24">
+        <f t="shared" si="0"/>
+        <v>300</v>
+      </c>
+    </row>
+    <row r="7" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A7" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="B7" s="24">
+        <f>B4-B5-B6</f>
+        <v>120</v>
+      </c>
+      <c r="C7" s="7"/>
+      <c r="D7" s="24">
+        <f>D4-D5-D6</f>
+        <v>120</v>
+      </c>
+    </row>
     <row r="9" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A9" s="12" t="s">
+      <c r="A9" s="36" t="s">
         <v>0</v>
       </c>
-      <c r="B9" s="13"/>
-      <c r="C9" s="14"/>
-      <c r="E9" s="16" t="s">
+      <c r="B9" s="37"/>
+      <c r="C9" s="38"/>
+      <c r="E9" s="30" t="s">
         <v>22</v>
       </c>
-      <c r="F9" s="17"/>
-      <c r="G9" s="18"/>
-      <c r="I9" s="20" t="s">
+      <c r="F9" s="31"/>
+      <c r="G9" s="32"/>
+      <c r="I9" s="33" t="s">
         <v>25</v>
       </c>
-      <c r="J9" s="21"/>
-      <c r="K9" s="21"/>
-      <c r="L9" s="22"/>
-      <c r="N9" s="16" t="s">
+      <c r="J9" s="34"/>
+      <c r="K9" s="34"/>
+      <c r="L9" s="35"/>
+      <c r="N9" s="30" t="s">
         <v>31</v>
       </c>
-      <c r="O9" s="17"/>
-      <c r="P9" s="17"/>
-      <c r="Q9" s="18"/>
-      <c r="S9" s="24" t="s">
+      <c r="O9" s="31"/>
+      <c r="P9" s="31"/>
+      <c r="Q9" s="32"/>
+      <c r="S9" s="39" t="s">
         <v>9</v>
       </c>
-      <c r="T9" s="25"/>
-      <c r="U9" s="26"/>
+      <c r="T9" s="40"/>
+      <c r="U9" s="41"/>
     </row>
     <row r="10" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A10" s="28" t="s">
+      <c r="A10" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="B10" s="28" t="s">
+      <c r="B10" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="C10" s="28" t="s">
+      <c r="C10" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="E10" s="29" t="s">
+      <c r="E10" s="15" t="s">
         <v>23</v>
       </c>
-      <c r="F10" s="29" t="s">
+      <c r="F10" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="G10" s="29" t="s">
+      <c r="G10" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="I10" s="30"/>
-      <c r="J10" s="30" t="s">
+      <c r="I10" s="16"/>
+      <c r="J10" s="16" t="s">
         <v>26</v>
       </c>
-      <c r="K10" s="30" t="s">
+      <c r="K10" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="L10" s="30" t="s">
+      <c r="L10" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="N10" s="29"/>
-      <c r="O10" s="29" t="s">
+      <c r="N10" s="15"/>
+      <c r="O10" s="15" t="s">
         <v>26</v>
       </c>
-      <c r="P10" s="29" t="s">
+      <c r="P10" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="Q10" s="29" t="s">
+      <c r="Q10" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="S10" s="31" t="s">
+      <c r="S10" s="17" t="s">
         <v>46</v>
       </c>
-      <c r="T10" s="31" t="s">
+      <c r="T10" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="U10" s="31" t="s">
+      <c r="U10" s="17" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="11" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A11" s="3" t="s">
+      <c r="A11" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="B11" s="32">
+      <c r="B11" s="18">
         <v>230</v>
       </c>
-      <c r="C11" s="32"/>
-      <c r="E11" s="7" t="s">
+      <c r="C11" s="18"/>
+      <c r="E11" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="F11" s="34">
+      <c r="F11" s="20">
         <v>529</v>
       </c>
-      <c r="G11" s="34"/>
-      <c r="I11" s="8" t="s">
+      <c r="G11" s="20"/>
+      <c r="I11" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="J11" s="8">
+      <c r="J11" s="43">
+        <f>DATE(2025,$C$1,10)</f>
+        <v>45636</v>
+      </c>
+      <c r="K11" s="22">
+        <v>400</v>
+      </c>
+      <c r="L11" s="22"/>
+      <c r="N11" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="O11" s="44">
+        <f ca="1">DATE(2025,$C$1,RANDBETWEEN(1,28))</f>
+        <v>45633</v>
+      </c>
+      <c r="P11" s="24">
         <v>10</v>
       </c>
-      <c r="K11" s="36">
-        <v>400</v>
-      </c>
-      <c r="L11" s="36"/>
-      <c r="N11" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="O11" s="9">
-        <f ca="1">RANDBETWEEN(1,28)</f>
-        <v>11</v>
-      </c>
-      <c r="P11" s="38">
-        <v>10</v>
-      </c>
-      <c r="Q11" s="38"/>
-      <c r="S11" s="11" t="s">
+      <c r="Q11" s="24"/>
+      <c r="S11" s="9" t="s">
         <v>47</v>
       </c>
-      <c r="T11" s="39">
+      <c r="T11" s="25">
         <v>80</v>
       </c>
-      <c r="U11" s="39"/>
+      <c r="U11" s="25"/>
     </row>
     <row r="12" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A12" s="3" t="s">
+      <c r="A12" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="B12" s="32">
+      <c r="B12" s="18">
         <v>200</v>
       </c>
-      <c r="C12" s="32"/>
-      <c r="E12" s="7" t="s">
+      <c r="C12" s="18"/>
+      <c r="E12" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="F12" s="34">
+      <c r="F12" s="20">
         <v>440</v>
       </c>
-      <c r="G12" s="34"/>
-      <c r="I12" s="8" t="s">
+      <c r="G12" s="20"/>
+      <c r="I12" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="J12" s="8">
-        <v>5</v>
-      </c>
-      <c r="K12" s="36">
+      <c r="J12" s="43">
+        <f t="shared" ref="J12:J17" si="1">DATE(2025,$C$1,10)</f>
+        <v>45636</v>
+      </c>
+      <c r="K12" s="22">
         <v>12</v>
       </c>
-      <c r="L12" s="36"/>
-      <c r="N12" s="9" t="s">
+      <c r="L12" s="22"/>
+      <c r="N12" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="O12" s="9">
-        <f t="shared" ref="O12:O14" ca="1" si="0">RANDBETWEEN(1,28)</f>
-        <v>21</v>
-      </c>
-      <c r="P12" s="38">
+      <c r="O12" s="44">
+        <f t="shared" ref="O12:O14" ca="1" si="2">DATE(2025,$C$1,RANDBETWEEN(1,28))</f>
+        <v>45638</v>
+      </c>
+      <c r="P12" s="24">
         <v>2.5</v>
       </c>
-      <c r="Q12" s="38"/>
-      <c r="S12" s="11" t="s">
+      <c r="Q12" s="24"/>
+      <c r="S12" s="9" t="s">
         <v>48</v>
       </c>
-      <c r="T12" s="39">
+      <c r="T12" s="25">
         <v>80</v>
       </c>
-      <c r="U12" s="39"/>
+      <c r="U12" s="25"/>
     </row>
     <row r="13" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A13" s="3" t="s">
+      <c r="A13" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="B13" s="32">
+      <c r="B13" s="18">
         <v>1500</v>
       </c>
-      <c r="C13" s="32"/>
-      <c r="E13" s="7" t="s">
+      <c r="C13" s="18"/>
+      <c r="E13" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="F13" s="34">
+      <c r="F13" s="20">
         <v>150</v>
       </c>
-      <c r="G13" s="34"/>
-      <c r="I13" s="8" t="s">
+      <c r="G13" s="20"/>
+      <c r="I13" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="J13" s="8">
-        <v>5</v>
-      </c>
-      <c r="K13" s="36">
+      <c r="J13" s="43">
+        <f t="shared" si="1"/>
+        <v>45636</v>
+      </c>
+      <c r="K13" s="22">
         <v>10</v>
       </c>
-      <c r="L13" s="36"/>
-      <c r="N13" s="9" t="s">
+      <c r="L13" s="22"/>
+      <c r="N13" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="O13" s="9">
-        <f t="shared" ca="1" si="0"/>
-        <v>5</v>
-      </c>
-      <c r="P13" s="38">
+      <c r="O13" s="44">
+        <f t="shared" ca="1" si="2"/>
+        <v>45633</v>
+      </c>
+      <c r="P13" s="24">
         <v>8</v>
       </c>
-      <c r="Q13" s="38"/>
-      <c r="S13" s="41" t="s">
+      <c r="Q13" s="24"/>
+      <c r="S13" s="27" t="s">
         <v>42</v>
       </c>
-      <c r="T13" s="39">
+      <c r="T13" s="25">
         <v>100</v>
       </c>
-      <c r="U13" s="39"/>
+      <c r="U13" s="25"/>
     </row>
     <row r="14" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A14" s="3" t="s">
+      <c r="A14" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="B14" s="32">
+      <c r="B14" s="18">
         <v>100</v>
       </c>
-      <c r="C14" s="32"/>
-      <c r="E14" s="7" t="s">
+      <c r="C14" s="18"/>
+      <c r="E14" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="F14" s="34">
+      <c r="F14" s="20">
         <v>300</v>
       </c>
-      <c r="G14" s="34"/>
-      <c r="I14" s="8" t="s">
+      <c r="G14" s="20"/>
+      <c r="I14" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="J14" s="8">
-        <v>10</v>
-      </c>
-      <c r="K14" s="36">
+      <c r="J14" s="43">
+        <f t="shared" si="1"/>
+        <v>45636</v>
+      </c>
+      <c r="K14" s="22">
         <v>20</v>
       </c>
-      <c r="L14" s="36"/>
-      <c r="N14" s="9" t="s">
+      <c r="L14" s="22"/>
+      <c r="N14" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="O14" s="9">
-        <f t="shared" ca="1" si="0"/>
-        <v>8</v>
-      </c>
-      <c r="P14" s="38">
+      <c r="O14" s="44">
+        <f t="shared" ca="1" si="2"/>
+        <v>45636</v>
+      </c>
+      <c r="P14" s="24">
         <v>1</v>
       </c>
-      <c r="Q14" s="38"/>
-      <c r="S14" s="41" t="s">
+      <c r="Q14" s="24"/>
+      <c r="S14" s="27" t="s">
         <v>43</v>
       </c>
-      <c r="T14" s="39">
+      <c r="T14" s="25">
         <v>30</v>
       </c>
-      <c r="U14" s="39"/>
+      <c r="U14" s="25"/>
     </row>
     <row r="15" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A15" s="3" t="s">
+      <c r="A15" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="B15" s="32"/>
-      <c r="C15" s="32"/>
-      <c r="E15" s="7" t="s">
+      <c r="B15" s="18"/>
+      <c r="C15" s="18"/>
+      <c r="E15" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="F15" s="34">
+      <c r="F15" s="20">
         <v>100</v>
       </c>
-      <c r="G15" s="34"/>
-      <c r="I15" s="8" t="s">
+      <c r="G15" s="20"/>
+      <c r="I15" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="J15" s="8">
+      <c r="J15" s="43">
+        <f t="shared" si="1"/>
+        <v>45636</v>
+      </c>
+      <c r="K15" s="22">
+        <v>45</v>
+      </c>
+      <c r="L15" s="22"/>
+      <c r="N15" s="7"/>
+      <c r="O15" s="7"/>
+      <c r="P15" s="24"/>
+      <c r="Q15" s="24"/>
+      <c r="S15" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="T15" s="25">
         <v>10</v>
       </c>
-      <c r="K15" s="36">
-        <v>45</v>
-      </c>
-      <c r="L15" s="36"/>
-      <c r="N15" s="9"/>
-      <c r="O15" s="9"/>
-      <c r="P15" s="38"/>
-      <c r="Q15" s="38"/>
-      <c r="S15" s="11" t="s">
-        <v>49</v>
-      </c>
-      <c r="T15" s="39">
-        <v>10</v>
-      </c>
-      <c r="U15" s="39"/>
+      <c r="U15" s="25"/>
     </row>
     <row r="16" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A16" s="3" t="s">
+      <c r="A16" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="B16" s="32"/>
-      <c r="C16" s="32"/>
-      <c r="E16" s="7" t="s">
+      <c r="B16" s="18"/>
+      <c r="C16" s="18"/>
+      <c r="E16" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="F16" s="34">
+      <c r="F16" s="20">
         <v>50</v>
       </c>
-      <c r="G16" s="34"/>
-      <c r="I16" s="8" t="s">
+      <c r="G16" s="20"/>
+      <c r="I16" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="J16" s="8">
-        <v>10</v>
-      </c>
-      <c r="K16" s="36">
+      <c r="J16" s="43">
+        <f t="shared" si="1"/>
+        <v>45636</v>
+      </c>
+      <c r="K16" s="22">
         <v>35</v>
       </c>
-      <c r="L16" s="36"/>
-      <c r="N16" s="9"/>
-      <c r="O16" s="9"/>
-      <c r="P16" s="38"/>
-      <c r="Q16" s="38"/>
-      <c r="S16" s="10"/>
-      <c r="T16" s="39"/>
-      <c r="U16" s="39"/>
+      <c r="L16" s="22"/>
+      <c r="N16" s="7"/>
+      <c r="O16" s="7"/>
+      <c r="P16" s="24"/>
+      <c r="Q16" s="24"/>
+      <c r="S16" s="8"/>
+      <c r="T16" s="25"/>
+      <c r="U16" s="25"/>
     </row>
     <row r="17" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A17" s="3"/>
-      <c r="B17" s="32"/>
-      <c r="C17" s="32"/>
-      <c r="E17" s="7"/>
-      <c r="F17" s="34"/>
-      <c r="G17" s="34"/>
-      <c r="I17" s="8" t="s">
+      <c r="A17" s="2"/>
+      <c r="B17" s="18"/>
+      <c r="C17" s="18"/>
+      <c r="E17" s="5"/>
+      <c r="F17" s="20"/>
+      <c r="G17" s="20"/>
+      <c r="I17" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="J17" s="8">
-        <v>10</v>
-      </c>
-      <c r="K17" s="36">
+      <c r="J17" s="43">
+        <f t="shared" si="1"/>
+        <v>45636</v>
+      </c>
+      <c r="K17" s="22">
         <v>7</v>
       </c>
-      <c r="L17" s="36"/>
-      <c r="N17" s="9"/>
-      <c r="O17" s="9"/>
-      <c r="P17" s="38"/>
-      <c r="Q17" s="38"/>
-      <c r="S17" s="10"/>
-      <c r="T17" s="39"/>
-      <c r="U17" s="39"/>
+      <c r="L17" s="22"/>
+      <c r="N17" s="7"/>
+      <c r="O17" s="7"/>
+      <c r="P17" s="24"/>
+      <c r="Q17" s="24"/>
+      <c r="S17" s="8"/>
+      <c r="T17" s="25"/>
+      <c r="U17" s="25"/>
     </row>
     <row r="18" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A18" s="3"/>
-      <c r="B18" s="32"/>
-      <c r="C18" s="32"/>
-      <c r="E18" s="7"/>
-      <c r="F18" s="34"/>
-      <c r="G18" s="34"/>
-      <c r="I18" s="8"/>
-      <c r="J18" s="8"/>
-      <c r="K18" s="36"/>
-      <c r="L18" s="36"/>
-      <c r="N18" s="9"/>
-      <c r="O18" s="9"/>
-      <c r="P18" s="38"/>
-      <c r="Q18" s="38"/>
-      <c r="S18" s="10"/>
-      <c r="T18" s="39"/>
-      <c r="U18" s="39"/>
+      <c r="A18" s="2"/>
+      <c r="B18" s="18"/>
+      <c r="C18" s="18"/>
+      <c r="E18" s="5"/>
+      <c r="F18" s="20"/>
+      <c r="G18" s="20"/>
+      <c r="I18" s="6"/>
+      <c r="J18" s="6"/>
+      <c r="K18" s="22"/>
+      <c r="L18" s="22"/>
+      <c r="N18" s="7"/>
+      <c r="O18" s="7"/>
+      <c r="P18" s="24"/>
+      <c r="Q18" s="24"/>
+      <c r="S18" s="8"/>
+      <c r="T18" s="25"/>
+      <c r="U18" s="25"/>
     </row>
     <row r="19" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A19" s="3"/>
-      <c r="B19" s="32"/>
-      <c r="C19" s="32"/>
-      <c r="E19" s="7" t="s">
+      <c r="A19" s="2"/>
+      <c r="B19" s="18"/>
+      <c r="C19" s="18"/>
+      <c r="E19" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="F19" s="34">
+      <c r="F19" s="20">
         <v>20</v>
       </c>
-      <c r="G19" s="34"/>
-      <c r="I19" s="8"/>
-      <c r="J19" s="8"/>
-      <c r="K19" s="36"/>
-      <c r="L19" s="36"/>
-      <c r="N19" s="9"/>
-      <c r="O19" s="9"/>
-      <c r="P19" s="38"/>
-      <c r="Q19" s="38"/>
-      <c r="S19" s="10"/>
-      <c r="T19" s="39"/>
-      <c r="U19" s="39"/>
+      <c r="G19" s="20"/>
+      <c r="I19" s="6"/>
+      <c r="J19" s="6"/>
+      <c r="K19" s="22"/>
+      <c r="L19" s="22"/>
+      <c r="N19" s="7"/>
+      <c r="O19" s="7"/>
+      <c r="P19" s="24"/>
+      <c r="Q19" s="24"/>
+      <c r="S19" s="8"/>
+      <c r="T19" s="25"/>
+      <c r="U19" s="25"/>
     </row>
     <row r="20" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A20" s="3"/>
-      <c r="B20" s="32"/>
-      <c r="C20" s="32"/>
-      <c r="E20" s="7" t="s">
+      <c r="A20" s="2"/>
+      <c r="B20" s="18"/>
+      <c r="C20" s="18"/>
+      <c r="E20" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="F20" s="34">
+      <c r="F20" s="20">
         <v>21</v>
       </c>
-      <c r="G20" s="34"/>
-      <c r="I20" s="8"/>
-      <c r="J20" s="8"/>
-      <c r="K20" s="36"/>
-      <c r="L20" s="36"/>
-      <c r="N20" s="9"/>
-      <c r="O20" s="9"/>
-      <c r="P20" s="38"/>
-      <c r="Q20" s="38"/>
-      <c r="S20" s="10"/>
-      <c r="T20" s="39"/>
-      <c r="U20" s="39"/>
+      <c r="G20" s="20"/>
+      <c r="I20" s="6"/>
+      <c r="J20" s="6"/>
+      <c r="K20" s="22"/>
+      <c r="L20" s="22"/>
+      <c r="N20" s="7"/>
+      <c r="O20" s="7"/>
+      <c r="P20" s="24"/>
+      <c r="Q20" s="24"/>
+      <c r="S20" s="8"/>
+      <c r="T20" s="25"/>
+      <c r="U20" s="25"/>
     </row>
     <row r="21" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A21" s="3"/>
-      <c r="B21" s="32"/>
-      <c r="C21" s="32"/>
-      <c r="E21" s="7"/>
-      <c r="F21" s="34"/>
-      <c r="G21" s="34"/>
-      <c r="I21" s="8"/>
-      <c r="J21" s="8"/>
-      <c r="K21" s="36"/>
-      <c r="L21" s="36"/>
-      <c r="N21" s="9"/>
-      <c r="O21" s="9"/>
-      <c r="P21" s="38"/>
-      <c r="Q21" s="38"/>
-      <c r="S21" s="10"/>
-      <c r="T21" s="39"/>
-      <c r="U21" s="39"/>
+      <c r="A21" s="2"/>
+      <c r="B21" s="18"/>
+      <c r="C21" s="18"/>
+      <c r="E21" s="5"/>
+      <c r="F21" s="20"/>
+      <c r="G21" s="20"/>
+      <c r="I21" s="6"/>
+      <c r="J21" s="6"/>
+      <c r="K21" s="22"/>
+      <c r="L21" s="22"/>
+      <c r="N21" s="7"/>
+      <c r="O21" s="7"/>
+      <c r="P21" s="24"/>
+      <c r="Q21" s="24"/>
+      <c r="S21" s="8"/>
+      <c r="T21" s="25"/>
+      <c r="U21" s="25"/>
     </row>
     <row r="22" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A22" s="3"/>
-      <c r="B22" s="32"/>
-      <c r="C22" s="32"/>
-      <c r="E22" s="7"/>
-      <c r="F22" s="34"/>
-      <c r="G22" s="34"/>
-      <c r="I22" s="8"/>
-      <c r="J22" s="8"/>
-      <c r="K22" s="36"/>
-      <c r="L22" s="36"/>
-      <c r="N22" s="9"/>
-      <c r="O22" s="9"/>
-      <c r="P22" s="38"/>
-      <c r="Q22" s="38"/>
-      <c r="S22" s="10"/>
-      <c r="T22" s="39"/>
-      <c r="U22" s="39"/>
+      <c r="A22" s="2"/>
+      <c r="B22" s="18"/>
+      <c r="C22" s="18"/>
+      <c r="E22" s="5"/>
+      <c r="F22" s="20"/>
+      <c r="G22" s="20"/>
+      <c r="I22" s="6"/>
+      <c r="J22" s="6"/>
+      <c r="K22" s="22"/>
+      <c r="L22" s="22"/>
+      <c r="N22" s="7"/>
+      <c r="O22" s="7"/>
+      <c r="P22" s="24"/>
+      <c r="Q22" s="24"/>
+      <c r="S22" s="8"/>
+      <c r="T22" s="25"/>
+      <c r="U22" s="25"/>
     </row>
     <row r="23" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A23" s="15" t="s">
+      <c r="A23" s="10" t="s">
         <v>45</v>
       </c>
-      <c r="B23" s="33">
+      <c r="B23" s="19">
         <f>SUM(B11:B22)</f>
         <v>2030</v>
       </c>
-      <c r="C23" s="33">
+      <c r="C23" s="19">
         <f>SUM(C11:C22)</f>
         <v>0</v>
       </c>
-      <c r="E23" s="19" t="s">
+      <c r="E23" s="11" t="s">
         <v>45</v>
       </c>
-      <c r="F23" s="35">
+      <c r="F23" s="21">
         <f>SUM(F11:F22)</f>
         <v>1610</v>
       </c>
-      <c r="G23" s="35">
+      <c r="G23" s="21">
         <f>SUM(G11:G22)</f>
         <v>0</v>
       </c>
-      <c r="I23" s="23" t="s">
+      <c r="I23" s="12" t="s">
         <v>45</v>
       </c>
-      <c r="J23" s="23"/>
-      <c r="K23" s="37">
+      <c r="J23" s="12"/>
+      <c r="K23" s="23">
         <f>SUM(K11:K22)</f>
         <v>529</v>
       </c>
-      <c r="L23" s="37">
+      <c r="L23" s="23">
         <f>SUM(L11:L22)</f>
         <v>0</v>
       </c>
-      <c r="N23" s="19" t="s">
+      <c r="N23" s="11" t="s">
         <v>45</v>
       </c>
-      <c r="O23" s="19"/>
-      <c r="P23" s="35">
+      <c r="O23" s="11"/>
+      <c r="P23" s="21">
         <f>SUM(P11:P22)</f>
         <v>21.5</v>
       </c>
-      <c r="Q23" s="35">
+      <c r="Q23" s="21">
         <f>SUM(Q11:Q22)</f>
         <v>0</v>
       </c>
-      <c r="S23" s="27" t="s">
+      <c r="S23" s="13" t="s">
         <v>45</v>
       </c>
-      <c r="T23" s="40">
+      <c r="T23" s="26">
         <f>SUM(T11:T22)</f>
         <v>300</v>
       </c>
-      <c r="U23" s="40">
+      <c r="U23" s="26">
         <f>SUM(U11:U22)</f>
         <v>0</v>
       </c>
@@ -1452,7 +4507,18 @@
     <mergeCell ref="A9:C9"/>
     <mergeCell ref="S9:U9"/>
   </mergeCells>
+  <conditionalFormatting sqref="B7:D7">
+    <cfRule type="cellIs" dxfId="2" priority="2" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J11:J22">
+    <cfRule type="cellIs" dxfId="0" priority="1" operator="lessThan">
+      <formula>45636</formula>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/budhet.xlsx
+++ b/budhet.xlsx
@@ -1,21 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29328"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\en-A013-09\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\en-A013-19\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{003991A1-DDA9-4155-B06D-BA199AC62644}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0ECB9885-8F00-433A-8FC6-0BC9B7D2AC35}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{D69F50E6-86D5-4449-9E68-09B84A0FC2AA}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="1" sheetId="2" r:id="rId2"/>
   </sheets>
+  <externalReferences>
+    <externalReference r:id="rId3"/>
+  </externalReferences>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -34,8 +37,30 @@
 </workbook>
 </file>
 
+<file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+  <metadataTypes count="1">
+    <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
+  </metadataTypes>
+  <futureMetadata name="XLDAPR" count="1">
+    <bk>
+      <extLst>
+        <ext uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
+          <xda:dynamicArrayProperties fDynamic="1" fCollapsed="0"/>
+        </ext>
+      </extLst>
+    </bk>
+  </futureMetadata>
+  <cellMetadata count="1">
+    <bk>
+      <rc t="1" v="0"/>
+    </bk>
+  </cellMetadata>
+</metadata>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="56">
   <si>
     <t>Income</t>
   </si>
@@ -94,15 +119,6 @@
     <t>Allowance</t>
   </si>
   <si>
-    <t>Gifts</t>
-  </si>
-  <si>
-    <t>Pension</t>
-  </si>
-  <si>
-    <t>Other</t>
-  </si>
-  <si>
     <t>Expenses</t>
   </si>
   <si>
@@ -121,9 +137,6 @@
     <t>Internet</t>
   </si>
   <si>
-    <t>Education</t>
-  </si>
-  <si>
     <t>Mobile phone</t>
   </si>
   <si>
@@ -160,18 +173,12 @@
     <t>Transportation</t>
   </si>
   <si>
-    <t>Health&amp;Beaty</t>
-  </si>
-  <si>
     <t>Electronics</t>
   </si>
   <si>
     <t>Appliances</t>
   </si>
   <si>
-    <t>Giftts&amp;Donations</t>
-  </si>
-  <si>
     <t>Sum</t>
   </si>
   <si>
@@ -197,6 +204,30 @@
   </si>
   <si>
     <t>Left</t>
+  </si>
+  <si>
+    <t>Financial</t>
+  </si>
+  <si>
+    <t>Gift</t>
+  </si>
+  <si>
+    <t>Other incoms</t>
+  </si>
+  <si>
+    <t>Clothing</t>
+  </si>
+  <si>
+    <t>Health&amp;Beauty</t>
+  </si>
+  <si>
+    <t>Multimedia</t>
+  </si>
+  <si>
+    <t>Other expences</t>
+  </si>
+  <si>
+    <t>Studies</t>
   </si>
 </sst>
 </file>
@@ -204,9 +235,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="3">
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0.00"/>
-    <numFmt numFmtId="165" formatCode="[$€-2]\ #,##0.00"/>
-    <numFmt numFmtId="168" formatCode="mmmm"/>
+    <numFmt numFmtId="167" formatCode="_-* #,##0.00\ [$zł-415]_-;\-* #,##0.00\ [$zł-415]_-;_-* &quot;-&quot;??\ [$zł-415]_-;_-@_-"/>
   </numFmts>
   <fonts count="6" x14ac:knownFonts="1">
     <font>
@@ -337,7 +368,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -397,8 +428,21 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </top>
+      <bottom style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="15">
+  <cellStyleXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -414,8 +458,9 @@
     <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="45">
+  <cellXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyBorder="1"/>
@@ -434,16 +479,9 @@
     <xf numFmtId="0" fontId="1" fillId="10" borderId="1" xfId="9" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="6" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="13" borderId="1" xfId="12" applyBorder="1"/>
-    <xf numFmtId="165" fontId="2" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="5" fillId="14" borderId="1" xfId="13" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="3" fillId="3" borderId="1" xfId="2" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="5" fillId="8" borderId="1" xfId="7" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="1" fillId="6" borderId="1" xfId="5" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="5" fillId="5" borderId="1" xfId="4" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="1" fillId="9" borderId="1" xfId="8" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="1" fillId="12" borderId="1" xfId="11" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="5" fillId="11" borderId="1" xfId="10" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="3" applyBorder="1"/>
+    <xf numFmtId="14" fontId="1" fillId="6" borderId="1" xfId="5" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="1" fillId="9" borderId="1" xfId="8" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -486,11 +524,28 @@
     <xf numFmtId="0" fontId="5" fillId="11" borderId="3" xfId="10" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="14" fontId="1" fillId="6" borderId="1" xfId="5" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="14" fontId="1" fillId="9" borderId="1" xfId="8" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="1" fillId="9" borderId="1" xfId="8" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="167" fontId="2" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="167" fontId="5" fillId="14" borderId="1" xfId="13" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="167" fontId="3" fillId="3" borderId="1" xfId="2" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="167" fontId="5" fillId="8" borderId="1" xfId="7" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="167" fontId="1" fillId="6" borderId="1" xfId="5" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="167" fontId="5" fillId="5" borderId="1" xfId="4" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="167" fontId="1" fillId="12" borderId="1" xfId="11" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="167" fontId="5" fillId="11" borderId="1" xfId="10" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="1" applyBorder="1"/>
+    <xf numFmtId="167" fontId="5" fillId="14" borderId="1" xfId="15" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="15">
+  <cellStyles count="16">
     <cellStyle name="40% - Accent1" xfId="5" builtinId="31"/>
     <cellStyle name="40% - Accent2" xfId="8" builtinId="35"/>
     <cellStyle name="40% - Accent4" xfId="11" builtinId="43"/>
@@ -503,16 +558,12 @@
     <cellStyle name="Accent4" xfId="10" builtinId="41"/>
     <cellStyle name="Accent6" xfId="13" builtinId="49"/>
     <cellStyle name="Bad" xfId="2" builtinId="27"/>
+    <cellStyle name="Currency" xfId="15" builtinId="4"/>
     <cellStyle name="Good" xfId="1" builtinId="26"/>
     <cellStyle name="Neutral" xfId="3" builtinId="28"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="3">
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
+  <dxfs count="2">
     <dxf>
       <font>
         <color rgb="FFFF0000"/>
@@ -592,7 +643,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet2!$B$3</c:f>
+              <c:f>'1'!$B$3</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -613,7 +664,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet2!$A$4:$A$6</c:f>
+              <c:f>'1'!$A$4:$A$6</c:f>
               <c:strCache>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
@@ -630,18 +681,18 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet2!$B$4:$B$6</c:f>
+              <c:f>'1'!$B$4:$B$6</c:f>
               <c:numCache>
-                <c:formatCode>[$€-2]\ #,##0.00</c:formatCode>
+                <c:formatCode>_-* #,##0.00\ [$zł-415]_-;\-* #,##0.00\ [$zł-415]_-;_-* "-"??\ [$zł-415]_-;_-@_-</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>2030</c:v>
+                  <c:v>5700</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1610</c:v>
+                  <c:v>3800</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>300</c:v>
+                  <c:v>1900</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -657,7 +708,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet2!$C$3</c:f>
+              <c:f>'1'!$C$3</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -678,7 +729,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet2!$A$4:$A$6</c:f>
+              <c:f>'1'!$A$4:$A$6</c:f>
               <c:strCache>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
@@ -695,18 +746,18 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet2!$C$4:$C$6</c:f>
+              <c:f>'1'!$C$4:$C$6</c:f>
               <c:numCache>
-                <c:formatCode>[$€-2]\ #,##0.00</c:formatCode>
+                <c:formatCode>_-* #,##0.00\ [$zł-415]_-;\-* #,##0.00\ [$zł-415]_-;_-* "-"??\ [$zł-415]_-;_-@_-</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>5655.5</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>4810</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0</c:v>
+                  <c:v>1000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -802,7 +853,7 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
-        <c:numFmt formatCode="[$€-2]\ #,##0.00" sourceLinked="1"/>
+        <c:numFmt formatCode="_-* #,##0.00\ [$zł-415]_-;\-* #,##0.00\ [$zł-415]_-;_-* &quot;-&quot;??\ [$zł-415]_-;_-@_-" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -1027,6 +1078,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000001-CA9E-4338-9B90-E4CA16C7EE38}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="1"/>
@@ -1042,6 +1098,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000003-CA9E-4338-9B90-E4CA16C7EE38}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="2"/>
@@ -1057,6 +1118,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000005-CA9E-4338-9B90-E4CA16C7EE38}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="3"/>
@@ -1074,6 +1140,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000007-CA9E-4338-9B90-E4CA16C7EE38}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dLbls>
             <c:spPr>
@@ -1132,38 +1203,38 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet2!$A$11:$A$14</c:f>
+              <c:f>'1'!$A$11:$A$14</c:f>
               <c:strCache>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>Scholarship</c:v>
+                  <c:v>Allowance</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>Salary</c:v>
+                  <c:v>Financial</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>Allowance</c:v>
+                  <c:v>Gift</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>Gifts</c:v>
+                  <c:v>Other incoms</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet2!$B$11:$B$14</c:f>
+              <c:f>'1'!$B$11:$B$14</c:f>
               <c:numCache>
-                <c:formatCode>[$€-2]\ #,##0.00</c:formatCode>
+                <c:formatCode>_-* #,##0.00\ [$zł-415]_-;\-* #,##0.00\ [$zł-415]_-;_-* "-"??\ [$zł-415]_-;_-@_-</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>230</c:v>
+                  <c:v>2500</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>200</c:v>
+                  <c:v>300</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1500</c:v>
+                  <c:v>500</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>100</c:v>
@@ -1404,6 +1475,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000003-EE8B-46D7-8F24-7909583D66FA}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="2"/>
@@ -1419,6 +1495,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000005-EE8B-46D7-8F24-7909583D66FA}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="3"/>
@@ -1434,6 +1515,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000007-EE8B-46D7-8F24-7909583D66FA}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="4"/>
@@ -1449,6 +1535,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000009-EE8B-46D7-8F24-7909583D66FA}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="5"/>
@@ -1464,6 +1555,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000000B-EE8B-46D7-8F24-7909583D66FA}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dLbls>
             <c:spPr>
@@ -1522,14 +1618,14 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet2!$E$11:$E$16</c:f>
+              <c:f>'1'!$F$11:$F$16</c:f>
               <c:strCache>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
                   <c:v>Accomodation</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>Education</c:v>
+                  <c:v>Clothing</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>Entertainment</c:v>
@@ -1538,37 +1634,37 @@
                   <c:v>Groceries</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>Transportation</c:v>
+                  <c:v>Health&amp;Beauty</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>Health&amp;Beaty</c:v>
+                  <c:v>Multimedia</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet2!$F$11:$F$16</c:f>
+              <c:f>'1'!$G$11:$G$16</c:f>
               <c:numCache>
-                <c:formatCode>[$€-2]\ #,##0.00</c:formatCode>
+                <c:formatCode>_-* #,##0.00\ [$zł-415]_-;\-* #,##0.00\ [$zł-415]_-;_-* "-"??\ [$zł-415]_-;_-@_-</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>529</c:v>
+                  <c:v>1740</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>440</c:v>
+                  <c:v>300</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>150</c:v>
+                  <c:v>200</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>300</c:v>
+                  <c:v>750</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>100</c:v>
+                  <c:v>130</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>50</c:v>
+                  <c:v>130</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3455,6 +3551,54 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <xxl21:alternateUrls>
+      <xxl21:absoluteUrl r:id="rId2"/>
+    </xxl21:alternateUrls>
+    <sheetNames>
+      <sheetName val="Dictionary"/>
+      <sheetName val="operations"/>
+      <sheetName val="1"/>
+      <sheetName val="2"/>
+      <sheetName val="3"/>
+      <sheetName val="4"/>
+      <sheetName val="5"/>
+      <sheetName val="6"/>
+      <sheetName val="7"/>
+      <sheetName val="8"/>
+      <sheetName val="9"/>
+      <sheetName val="10"/>
+      <sheetName val="11"/>
+      <sheetName val="12"/>
+      <sheetName val="summary1"/>
+      <sheetName val="summary2"/>
+      <sheetName val="summary3"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0"/>
+      <sheetData sheetId="1"/>
+      <sheetData sheetId="2"/>
+      <sheetData sheetId="3"/>
+      <sheetData sheetId="4"/>
+      <sheetData sheetId="5"/>
+      <sheetData sheetId="6"/>
+      <sheetData sheetId="7"/>
+      <sheetData sheetId="8"/>
+      <sheetData sheetId="9"/>
+      <sheetData sheetId="10"/>
+      <sheetData sheetId="11"/>
+      <sheetData sheetId="12"/>
+      <sheetData sheetId="13"/>
+      <sheetData sheetId="14"/>
+      <sheetData sheetId="15"/>
+      <sheetData sheetId="16"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -3766,16 +3910,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1" s="28" t="s">
+      <c r="A1" s="21" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="28"/>
-      <c r="D1" s="29" t="s">
+      <c r="B1" s="21"/>
+      <c r="D1" s="22" t="s">
         <v>10</v>
       </c>
-      <c r="E1" s="29"/>
-      <c r="F1" s="29"/>
-      <c r="G1" s="29"/>
+      <c r="E1" s="22"/>
+      <c r="F1" s="22"/>
+      <c r="G1" s="22"/>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
@@ -3784,14 +3928,14 @@
       <c r="B2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="29" t="s">
+      <c r="D2" s="22" t="s">
         <v>7</v>
       </c>
-      <c r="E2" s="29"/>
-      <c r="F2" s="29" t="s">
+      <c r="E2" s="22"/>
+      <c r="F2" s="22" t="s">
         <v>8</v>
       </c>
-      <c r="G2" s="29"/>
+      <c r="G2" s="22"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
@@ -3872,43 +4016,53 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{05D14AD7-A049-4019-A9AC-57E1AC3DEAE9}">
-  <dimension ref="A1:U23"/>
+  <dimension ref="A1:W23"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="P21" sqref="P21"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="H30" sqref="H30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="11.42578125" customWidth="1"/>
-    <col min="2" max="2" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.85546875" customWidth="1"/>
+    <col min="4" max="4" width="12" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="18" customWidth="1"/>
-    <col min="6" max="6" width="10.85546875" customWidth="1"/>
+    <col min="6" max="6" width="15.140625" customWidth="1"/>
+    <col min="7" max="8" width="12" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="14.5703125" customWidth="1"/>
     <col min="10" max="10" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="12.5703125" customWidth="1"/>
+    <col min="12" max="12" width="13.7109375" customWidth="1"/>
+    <col min="13" max="13" width="12.28515625" customWidth="1"/>
     <col min="15" max="15" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="12.85546875" customWidth="1"/>
+    <col min="17" max="17" width="11.85546875" customWidth="1"/>
     <col min="19" max="19" width="26.5703125" customWidth="1"/>
+    <col min="21" max="21" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="13" customWidth="1"/>
+    <col min="23" max="23" width="10.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A1" s="11" t="s">
-        <v>50</v>
-      </c>
-      <c r="B1" s="42">
-        <f>DATE(2025,C1,1)</f>
-        <v>45627</v>
-      </c>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
+    <row r="1" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A1" s="23" t="s">
+        <v>44</v>
+      </c>
+      <c r="B1" s="24"/>
+      <c r="C1" s="24"/>
+      <c r="D1" s="25"/>
     </row>
-    <row r="2" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A2" s="1"/>
-      <c r="B2" s="1"/>
-      <c r="C2" s="1"/>
-      <c r="D2" s="1"/>
+    <row r="2" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A2" s="35" t="str" cm="1">
+        <f t="array" aca="1" ref="A2" ca="1">CELL("filename")</f>
+        <v>C:\Users\en-A013-19\Downloads\[budhet.xlsx]1</v>
+      </c>
+      <c r="B2" s="36"/>
+      <c r="C2" s="36"/>
+      <c r="D2" s="37"/>
     </row>
-    <row r="3" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A3" s="1"/>
       <c r="B3" s="11" t="s">
         <v>15</v>
@@ -3917,104 +4071,109 @@
         <v>16</v>
       </c>
       <c r="D3" s="11" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
     </row>
-    <row r="4" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A4" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="24">
+      <c r="B4" s="38">
         <f>B23</f>
-        <v>2030</v>
-      </c>
-      <c r="C4" s="24">
-        <f>C23</f>
-        <v>0</v>
-      </c>
-      <c r="D4" s="24">
-        <f>B4-C4</f>
-        <v>2030</v>
+        <v>5700</v>
+      </c>
+      <c r="C4" s="38">
+        <f ca="1">C23</f>
+        <v>5655.5</v>
+      </c>
+      <c r="D4" s="38">
+        <f ca="1">C4-B4</f>
+        <v>-44.5</v>
       </c>
     </row>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A5" s="11" t="s">
-        <v>51</v>
-      </c>
-      <c r="B5" s="24">
-        <f>F23</f>
-        <v>1610</v>
-      </c>
-      <c r="C5" s="24">
+        <v>45</v>
+      </c>
+      <c r="B5" s="38">
         <f>G23</f>
-        <v>0</v>
-      </c>
-      <c r="D5" s="24">
-        <f t="shared" ref="D5:D6" si="0">B5-C5</f>
-        <v>1610</v>
+        <v>3800</v>
+      </c>
+      <c r="C5" s="38">
+        <f>H23</f>
+        <v>4810</v>
+      </c>
+      <c r="D5" s="38">
+        <f>B5-C5</f>
+        <v>-1010</v>
       </c>
     </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A6" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="24">
-        <f>T23</f>
-        <v>300</v>
-      </c>
-      <c r="C6" s="24">
-        <f>U23</f>
+      <c r="B6" s="38">
+        <f>V23</f>
+        <v>1900</v>
+      </c>
+      <c r="C6" s="38">
+        <f>W23</f>
+        <v>1000</v>
+      </c>
+      <c r="D6" s="38">
+        <f>B6-C6</f>
+        <v>900</v>
+      </c>
+    </row>
+    <row r="7" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A7" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="B7" s="38">
+        <f>B4-B5-B6</f>
         <v>0</v>
       </c>
-      <c r="D6" s="24">
-        <f t="shared" si="0"/>
-        <v>300</v>
+      <c r="C7" s="38">
+        <f ca="1">C4-C5-C6</f>
+        <v>-154.5</v>
+      </c>
+      <c r="D7" s="38">
+        <f ca="1">D4+D5+D6</f>
+        <v>-154.5</v>
       </c>
     </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A7" s="11" t="s">
-        <v>52</v>
-      </c>
-      <c r="B7" s="24">
-        <f>B4-B5-B6</f>
-        <v>120</v>
-      </c>
-      <c r="C7" s="7"/>
-      <c r="D7" s="24">
-        <f>D4-D5-D6</f>
-        <v>120</v>
-      </c>
+    <row r="9" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A9" s="29" t="s">
+        <v>0</v>
+      </c>
+      <c r="B9" s="30"/>
+      <c r="C9" s="30"/>
+      <c r="D9" s="31"/>
+      <c r="F9" s="23" t="s">
+        <v>19</v>
+      </c>
+      <c r="G9" s="24"/>
+      <c r="H9" s="24"/>
+      <c r="I9" s="25"/>
+      <c r="K9" s="26" t="s">
+        <v>22</v>
+      </c>
+      <c r="L9" s="27"/>
+      <c r="M9" s="27"/>
+      <c r="N9" s="28"/>
+      <c r="P9" s="23" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q9" s="24"/>
+      <c r="R9" s="24"/>
+      <c r="S9" s="25"/>
+      <c r="U9" s="32" t="s">
+        <v>9</v>
+      </c>
+      <c r="V9" s="33"/>
+      <c r="W9" s="34"/>
     </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A9" s="36" t="s">
-        <v>0</v>
-      </c>
-      <c r="B9" s="37"/>
-      <c r="C9" s="38"/>
-      <c r="E9" s="30" t="s">
-        <v>22</v>
-      </c>
-      <c r="F9" s="31"/>
-      <c r="G9" s="32"/>
-      <c r="I9" s="33" t="s">
-        <v>25</v>
-      </c>
-      <c r="J9" s="34"/>
-      <c r="K9" s="34"/>
-      <c r="L9" s="35"/>
-      <c r="N9" s="30" t="s">
-        <v>31</v>
-      </c>
-      <c r="O9" s="31"/>
-      <c r="P9" s="31"/>
-      <c r="Q9" s="32"/>
-      <c r="S9" s="39" t="s">
-        <v>9</v>
-      </c>
-      <c r="T9" s="40"/>
-      <c r="U9" s="41"/>
-    </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A10" s="14" t="s">
         <v>1</v>
       </c>
@@ -4024,495 +4183,628 @@
       <c r="C10" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="E10" s="15" t="s">
+      <c r="D10" s="14" t="s">
+        <v>47</v>
+      </c>
+      <c r="F10" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="G10" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="H10" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="I10" s="15" t="s">
+        <v>47</v>
+      </c>
+      <c r="K10" s="16"/>
+      <c r="L10" s="16" t="s">
         <v>23</v>
       </c>
-      <c r="F10" s="15" t="s">
+      <c r="M10" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="G10" s="15" t="s">
+      <c r="N10" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="I10" s="16"/>
-      <c r="J10" s="16" t="s">
+      <c r="P10" s="15"/>
+      <c r="Q10" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="R10" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="S10" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="U10" s="17" t="s">
+        <v>40</v>
+      </c>
+      <c r="V10" s="17" t="s">
+        <v>15</v>
+      </c>
+      <c r="W10" s="17" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="11" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A11" s="47" t="s">
+        <v>18</v>
+      </c>
+      <c r="B11" s="39">
+        <v>2500</v>
+      </c>
+      <c r="C11" s="39">
+        <f ca="1">_xlfn.XLOOKUP(A11,[1]!income_1[Category],[1]!income_1[Total],0,1)</f>
+        <v>250</v>
+      </c>
+      <c r="D11" s="39">
+        <f ca="1">C11-B11</f>
+        <v>-2250</v>
+      </c>
+      <c r="F11" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="G11" s="41">
+        <v>1740</v>
+      </c>
+      <c r="H11" s="41">
+        <v>2000</v>
+      </c>
+      <c r="I11" s="41">
+        <f>G11-H11</f>
+        <v>-260</v>
+      </c>
+      <c r="K11" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="L11" s="19" t="e" cm="1">
+        <f t="array" aca="1" ref="L11" ca="1">TEXTAFTER(CELL("filename",A1),"]")</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="M11" s="43">
+        <v>1500</v>
+      </c>
+      <c r="N11" s="43"/>
+      <c r="P11" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q11" s="20">
+        <f ca="1">DATE(2025,$C$1,RANDBETWEEN(1,28))</f>
+        <v>45652</v>
+      </c>
+      <c r="R11" s="38">
+        <v>33</v>
+      </c>
+      <c r="S11" s="38"/>
+      <c r="U11" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="V11" s="45">
+        <v>350</v>
+      </c>
+      <c r="W11" s="45"/>
+    </row>
+    <row r="12" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A12" s="47" t="s">
+        <v>48</v>
+      </c>
+      <c r="B12" s="39">
+        <v>300</v>
+      </c>
+      <c r="C12" s="39">
+        <f ca="1">_xlfn.XLOOKUP(A12,[1]!income_1[Category],[1]!income_1[Total],0,1)</f>
+        <v>105.5</v>
+      </c>
+      <c r="D12" s="39">
+        <f t="shared" ref="D12:D16" ca="1" si="0">C12-B12</f>
+        <v>-194.5</v>
+      </c>
+      <c r="F12" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="G12" s="41">
+        <v>300</v>
+      </c>
+      <c r="H12" s="41">
+        <v>80</v>
+      </c>
+      <c r="I12" s="41">
+        <f t="shared" ref="I12:I19" si="1">G12-H12</f>
+        <v>220</v>
+      </c>
+      <c r="K12" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="L12" s="19" t="e">
+        <f t="shared" ref="L12:L17" ca="1" si="2">DATE(2025,$A$2,10)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="M12" s="43">
+        <v>60</v>
+      </c>
+      <c r="N12" s="43"/>
+      <c r="P12" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q12" s="20">
+        <f t="shared" ref="Q12:Q14" ca="1" si="3">DATE(2025,$C$1,RANDBETWEEN(1,28))</f>
+        <v>45636</v>
+      </c>
+      <c r="R12" s="38">
+        <v>12.99</v>
+      </c>
+      <c r="S12" s="38"/>
+      <c r="U12" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="V12" s="45">
+        <v>500</v>
+      </c>
+      <c r="W12" s="45">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="13" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A13" s="47" t="s">
+        <v>49</v>
+      </c>
+      <c r="B13" s="39">
+        <v>500</v>
+      </c>
+      <c r="C13" s="39">
+        <f ca="1">_xlfn.XLOOKUP(A13,[1]!income_1[Category],[1]!income_1[Total],0,1)</f>
+        <v>0</v>
+      </c>
+      <c r="D13" s="39">
+        <f t="shared" ca="1" si="0"/>
+        <v>-500</v>
+      </c>
+      <c r="F13" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="K10" s="16" t="s">
-        <v>15</v>
-      </c>
-      <c r="L10" s="16" t="s">
-        <v>16</v>
-      </c>
-      <c r="N10" s="15"/>
-      <c r="O10" s="15" t="s">
-        <v>26</v>
-      </c>
-      <c r="P10" s="15" t="s">
-        <v>15</v>
-      </c>
-      <c r="Q10" s="15" t="s">
-        <v>16</v>
-      </c>
-      <c r="S10" s="17" t="s">
-        <v>46</v>
-      </c>
-      <c r="T10" s="17" t="s">
-        <v>15</v>
-      </c>
-      <c r="U10" s="17" t="s">
-        <v>16</v>
+      <c r="G13" s="41">
+        <v>200</v>
+      </c>
+      <c r="H13" s="41">
+        <v>85</v>
+      </c>
+      <c r="I13" s="41">
+        <f t="shared" si="1"/>
+        <v>115</v>
+      </c>
+      <c r="K13" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="L13" s="19" t="e">
+        <f t="shared" ca="1" si="2"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="M13" s="43">
+        <v>10</v>
+      </c>
+      <c r="N13" s="43"/>
+      <c r="P13" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q13" s="20">
+        <f t="shared" ca="1" si="3"/>
+        <v>45630</v>
+      </c>
+      <c r="R13" s="38">
+        <v>42.69</v>
+      </c>
+      <c r="S13" s="38"/>
+      <c r="U13" s="18" t="s">
+        <v>37</v>
+      </c>
+      <c r="V13" s="45">
+        <v>500</v>
+      </c>
+      <c r="W13" s="45">
+        <v>500</v>
       </c>
     </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A11" s="2" t="s">
+    <row r="14" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A14" s="47" t="s">
+        <v>50</v>
+      </c>
+      <c r="B14" s="39">
+        <v>100</v>
+      </c>
+      <c r="C14" s="39">
+        <f ca="1">_xlfn.XLOOKUP(A14,[1]!income_1[Category],[1]!income_1[Total],0,1)</f>
+        <v>800</v>
+      </c>
+      <c r="D14" s="39">
+        <f t="shared" ca="1" si="0"/>
+        <v>700</v>
+      </c>
+      <c r="F14" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="G14" s="41">
+        <v>750</v>
+      </c>
+      <c r="H14" s="41">
+        <v>1715</v>
+      </c>
+      <c r="I14" s="41">
+        <f t="shared" si="1"/>
+        <v>-965</v>
+      </c>
+      <c r="K14" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="L14" s="19" t="e">
+        <f t="shared" ca="1" si="2"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="M14" s="43">
+        <v>35</v>
+      </c>
+      <c r="N14" s="43"/>
+      <c r="P14" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q14" s="20">
+        <f t="shared" ca="1" si="3"/>
+        <v>45634</v>
+      </c>
+      <c r="R14" s="38">
+        <v>4.99</v>
+      </c>
+      <c r="S14" s="38"/>
+      <c r="U14" s="18" t="s">
+        <v>38</v>
+      </c>
+      <c r="V14" s="45">
+        <v>150</v>
+      </c>
+      <c r="W14" s="45"/>
+    </row>
+    <row r="15" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A15" s="47" t="s">
+        <v>17</v>
+      </c>
+      <c r="B15" s="39">
+        <v>1500</v>
+      </c>
+      <c r="C15" s="39">
+        <f ca="1">_xlfn.XLOOKUP(A15,[1]!income_1[Category],[1]!income_1[Total],0,1)</f>
+        <v>4500</v>
+      </c>
+      <c r="D15" s="39">
+        <f t="shared" ca="1" si="0"/>
+        <v>3000</v>
+      </c>
+      <c r="F15" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="G15" s="41">
+        <v>130</v>
+      </c>
+      <c r="H15" s="41">
+        <v>100</v>
+      </c>
+      <c r="I15" s="41">
+        <f t="shared" si="1"/>
+        <v>30</v>
+      </c>
+      <c r="K15" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="L15" s="19" t="e">
+        <f t="shared" ca="1" si="2"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="M15" s="43">
+        <v>25</v>
+      </c>
+      <c r="N15" s="43"/>
+      <c r="P15" s="7"/>
+      <c r="Q15" s="7"/>
+      <c r="R15" s="38"/>
+      <c r="S15" s="38"/>
+      <c r="U15" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="V15" s="45">
+        <v>400</v>
+      </c>
+      <c r="W15" s="45"/>
+    </row>
+    <row r="16" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A16" s="47" t="s">
         <v>14</v>
       </c>
-      <c r="B11" s="18">
-        <v>230</v>
-      </c>
-      <c r="C11" s="18"/>
-      <c r="E11" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="F11" s="20">
-        <v>529</v>
-      </c>
-      <c r="G11" s="20"/>
-      <c r="I11" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="J11" s="43">
-        <f>DATE(2025,$C$1,10)</f>
-        <v>45636</v>
-      </c>
-      <c r="K11" s="22">
-        <v>400</v>
-      </c>
-      <c r="L11" s="22"/>
-      <c r="N11" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="O11" s="44">
-        <f ca="1">DATE(2025,$C$1,RANDBETWEEN(1,28))</f>
-        <v>45633</v>
-      </c>
-      <c r="P11" s="24">
-        <v>10</v>
-      </c>
-      <c r="Q11" s="24"/>
-      <c r="S11" s="9" t="s">
-        <v>47</v>
-      </c>
-      <c r="T11" s="25">
+      <c r="B16" s="39">
+        <v>800</v>
+      </c>
+      <c r="C16" s="39">
+        <f ca="1">_xlfn.XLOOKUP(A16,[1]!income_1[Category],[1]!income_1[Total],0,1)</f>
+        <v>0</v>
+      </c>
+      <c r="D16" s="39">
+        <f t="shared" ca="1" si="0"/>
+        <v>-800</v>
+      </c>
+      <c r="F16" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="G16" s="41">
+        <v>130</v>
+      </c>
+      <c r="H16" s="41">
+        <v>150</v>
+      </c>
+      <c r="I16" s="41">
+        <f t="shared" si="1"/>
+        <v>-20</v>
+      </c>
+      <c r="K16" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="L16" s="19" t="e">
+        <f t="shared" ca="1" si="2"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="M16" s="43">
         <v>80</v>
       </c>
-      <c r="U11" s="25"/>
+      <c r="N16" s="43"/>
+      <c r="P16" s="7"/>
+      <c r="Q16" s="7"/>
+      <c r="R16" s="38"/>
+      <c r="S16" s="38"/>
+      <c r="U16" s="8"/>
+      <c r="V16" s="45"/>
+      <c r="W16" s="45"/>
     </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A12" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="B12" s="18">
+    <row r="17" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A17" s="2"/>
+      <c r="B17" s="39"/>
+      <c r="C17" s="39"/>
+      <c r="D17" s="39"/>
+      <c r="F17" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="G17" s="41">
         <v>200</v>
       </c>
-      <c r="C12" s="18"/>
-      <c r="E12" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="F12" s="20">
-        <v>440</v>
-      </c>
-      <c r="G12" s="20"/>
-      <c r="I12" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="J12" s="43">
-        <f t="shared" ref="J12:J17" si="1">DATE(2025,$C$1,10)</f>
-        <v>45636</v>
-      </c>
-      <c r="K12" s="22">
-        <v>12</v>
-      </c>
-      <c r="L12" s="22"/>
-      <c r="N12" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="O12" s="44">
-        <f t="shared" ref="O12:O14" ca="1" si="2">DATE(2025,$C$1,RANDBETWEEN(1,28))</f>
-        <v>45638</v>
-      </c>
-      <c r="P12" s="24">
-        <v>2.5</v>
-      </c>
-      <c r="Q12" s="24"/>
-      <c r="S12" s="9" t="s">
-        <v>48</v>
-      </c>
-      <c r="T12" s="25">
+      <c r="H17" s="41">
+        <v>500</v>
+      </c>
+      <c r="I17" s="41">
+        <f t="shared" si="1"/>
+        <v>-300</v>
+      </c>
+      <c r="K17" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="L17" s="19" t="e">
+        <f t="shared" ca="1" si="2"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="M17" s="43">
+        <v>35</v>
+      </c>
+      <c r="N17" s="43"/>
+      <c r="P17" s="7"/>
+      <c r="Q17" s="7"/>
+      <c r="R17" s="38"/>
+      <c r="S17" s="38"/>
+      <c r="U17" s="8"/>
+      <c r="V17" s="45"/>
+      <c r="W17" s="45"/>
+    </row>
+    <row r="18" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A18" s="2"/>
+      <c r="B18" s="39"/>
+      <c r="C18" s="39"/>
+      <c r="D18" s="39"/>
+      <c r="F18" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="G18" s="41">
+        <v>200</v>
+      </c>
+      <c r="H18" s="41">
+        <v>100</v>
+      </c>
+      <c r="I18" s="41">
+        <f t="shared" si="1"/>
+        <v>100</v>
+      </c>
+      <c r="K18" s="6"/>
+      <c r="L18" s="6"/>
+      <c r="M18" s="43"/>
+      <c r="N18" s="43"/>
+      <c r="P18" s="7"/>
+      <c r="Q18" s="7"/>
+      <c r="R18" s="38"/>
+      <c r="S18" s="38"/>
+      <c r="U18" s="8"/>
+      <c r="V18" s="45"/>
+      <c r="W18" s="45"/>
+    </row>
+    <row r="19" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A19" s="2"/>
+      <c r="B19" s="39"/>
+      <c r="C19" s="39"/>
+      <c r="D19" s="39"/>
+      <c r="F19" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="G19" s="41">
+        <v>150</v>
+      </c>
+      <c r="H19" s="41">
         <v>80</v>
       </c>
-      <c r="U12" s="25"/>
+      <c r="I19" s="41">
+        <f t="shared" si="1"/>
+        <v>70</v>
+      </c>
+      <c r="K19" s="6"/>
+      <c r="L19" s="6"/>
+      <c r="M19" s="43"/>
+      <c r="N19" s="43"/>
+      <c r="P19" s="7"/>
+      <c r="Q19" s="7"/>
+      <c r="R19" s="38"/>
+      <c r="S19" s="38"/>
+      <c r="U19" s="8"/>
+      <c r="V19" s="45"/>
+      <c r="W19" s="45"/>
     </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A13" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="B13" s="18">
-        <v>1500</v>
-      </c>
-      <c r="C13" s="18"/>
-      <c r="E13" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="F13" s="20">
-        <v>150</v>
-      </c>
-      <c r="G13" s="20"/>
-      <c r="I13" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="J13" s="43">
-        <f t="shared" si="1"/>
-        <v>45636</v>
-      </c>
-      <c r="K13" s="22">
-        <v>10</v>
-      </c>
-      <c r="L13" s="22"/>
-      <c r="N13" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="O13" s="44">
-        <f t="shared" ca="1" si="2"/>
-        <v>45633</v>
-      </c>
-      <c r="P13" s="24">
-        <v>8</v>
-      </c>
-      <c r="Q13" s="24"/>
-      <c r="S13" s="27" t="s">
-        <v>42</v>
-      </c>
-      <c r="T13" s="25">
-        <v>100</v>
-      </c>
-      <c r="U13" s="25"/>
+    <row r="20" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A20" s="2"/>
+      <c r="B20" s="39"/>
+      <c r="C20" s="39"/>
+      <c r="D20" s="39"/>
+      <c r="F20" s="5"/>
+      <c r="G20" s="41"/>
+      <c r="H20" s="41"/>
+      <c r="I20" s="41"/>
+      <c r="K20" s="6"/>
+      <c r="L20" s="6"/>
+      <c r="M20" s="43"/>
+      <c r="N20" s="43"/>
+      <c r="P20" s="7"/>
+      <c r="Q20" s="7"/>
+      <c r="R20" s="38"/>
+      <c r="S20" s="38"/>
+      <c r="U20" s="8"/>
+      <c r="V20" s="45"/>
+      <c r="W20" s="45"/>
     </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A14" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="B14" s="18">
-        <v>100</v>
-      </c>
-      <c r="C14" s="18"/>
-      <c r="E14" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="F14" s="20">
-        <v>300</v>
-      </c>
-      <c r="G14" s="20"/>
-      <c r="I14" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="J14" s="43">
-        <f t="shared" si="1"/>
-        <v>45636</v>
-      </c>
-      <c r="K14" s="22">
-        <v>20</v>
-      </c>
-      <c r="L14" s="22"/>
-      <c r="N14" s="7" t="s">
+    <row r="21" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A21" s="2"/>
+      <c r="B21" s="39"/>
+      <c r="C21" s="39"/>
+      <c r="D21" s="39"/>
+      <c r="F21" s="5"/>
+      <c r="G21" s="41"/>
+      <c r="H21" s="41"/>
+      <c r="I21" s="41"/>
+      <c r="K21" s="6"/>
+      <c r="L21" s="6"/>
+      <c r="M21" s="43"/>
+      <c r="N21" s="43"/>
+      <c r="P21" s="7"/>
+      <c r="Q21" s="7"/>
+      <c r="R21" s="38"/>
+      <c r="S21" s="38"/>
+      <c r="U21" s="8"/>
+      <c r="V21" s="45"/>
+      <c r="W21" s="45"/>
+    </row>
+    <row r="22" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A22" s="2"/>
+      <c r="B22" s="39"/>
+      <c r="C22" s="39"/>
+      <c r="D22" s="39"/>
+      <c r="F22" s="5"/>
+      <c r="G22" s="41"/>
+      <c r="H22" s="41"/>
+      <c r="I22" s="41"/>
+      <c r="K22" s="6"/>
+      <c r="L22" s="6"/>
+      <c r="M22" s="43"/>
+      <c r="N22" s="43"/>
+      <c r="P22" s="7"/>
+      <c r="Q22" s="7"/>
+      <c r="R22" s="38"/>
+      <c r="S22" s="38"/>
+      <c r="U22" s="8"/>
+      <c r="V22" s="45"/>
+      <c r="W22" s="45"/>
+    </row>
+    <row r="23" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A23" s="10" t="s">
         <v>39</v>
       </c>
-      <c r="O14" s="44">
-        <f t="shared" ca="1" si="2"/>
-        <v>45636</v>
-      </c>
-      <c r="P14" s="24">
-        <v>1</v>
-      </c>
-      <c r="Q14" s="24"/>
-      <c r="S14" s="27" t="s">
-        <v>43</v>
-      </c>
-      <c r="T14" s="25">
-        <v>30</v>
-      </c>
-      <c r="U14" s="25"/>
-    </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A15" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="B15" s="18"/>
-      <c r="C15" s="18"/>
-      <c r="E15" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="F15" s="20">
-        <v>100</v>
-      </c>
-      <c r="G15" s="20"/>
-      <c r="I15" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="J15" s="43">
-        <f t="shared" si="1"/>
-        <v>45636</v>
-      </c>
-      <c r="K15" s="22">
-        <v>45</v>
-      </c>
-      <c r="L15" s="22"/>
-      <c r="N15" s="7"/>
-      <c r="O15" s="7"/>
-      <c r="P15" s="24"/>
-      <c r="Q15" s="24"/>
-      <c r="S15" s="9" t="s">
-        <v>49</v>
-      </c>
-      <c r="T15" s="25">
-        <v>10</v>
-      </c>
-      <c r="U15" s="25"/>
-    </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A16" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="B16" s="18"/>
-      <c r="C16" s="18"/>
-      <c r="E16" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="F16" s="20">
-        <v>50</v>
-      </c>
-      <c r="G16" s="20"/>
-      <c r="I16" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="J16" s="43">
-        <f t="shared" si="1"/>
-        <v>45636</v>
-      </c>
-      <c r="K16" s="22">
-        <v>35</v>
-      </c>
-      <c r="L16" s="22"/>
-      <c r="N16" s="7"/>
-      <c r="O16" s="7"/>
-      <c r="P16" s="24"/>
-      <c r="Q16" s="24"/>
-      <c r="S16" s="8"/>
-      <c r="T16" s="25"/>
-      <c r="U16" s="25"/>
-    </row>
-    <row r="17" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A17" s="2"/>
-      <c r="B17" s="18"/>
-      <c r="C17" s="18"/>
-      <c r="E17" s="5"/>
-      <c r="F17" s="20"/>
-      <c r="G17" s="20"/>
-      <c r="I17" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="J17" s="43">
-        <f t="shared" si="1"/>
-        <v>45636</v>
-      </c>
-      <c r="K17" s="22">
-        <v>7</v>
-      </c>
-      <c r="L17" s="22"/>
-      <c r="N17" s="7"/>
-      <c r="O17" s="7"/>
-      <c r="P17" s="24"/>
-      <c r="Q17" s="24"/>
-      <c r="S17" s="8"/>
-      <c r="T17" s="25"/>
-      <c r="U17" s="25"/>
-    </row>
-    <row r="18" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A18" s="2"/>
-      <c r="B18" s="18"/>
-      <c r="C18" s="18"/>
-      <c r="E18" s="5"/>
-      <c r="F18" s="20"/>
-      <c r="G18" s="20"/>
-      <c r="I18" s="6"/>
-      <c r="J18" s="6"/>
-      <c r="K18" s="22"/>
-      <c r="L18" s="22"/>
-      <c r="N18" s="7"/>
-      <c r="O18" s="7"/>
-      <c r="P18" s="24"/>
-      <c r="Q18" s="24"/>
-      <c r="S18" s="8"/>
-      <c r="T18" s="25"/>
-      <c r="U18" s="25"/>
-    </row>
-    <row r="19" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A19" s="2"/>
-      <c r="B19" s="18"/>
-      <c r="C19" s="18"/>
-      <c r="E19" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="F19" s="20">
-        <v>20</v>
-      </c>
-      <c r="G19" s="20"/>
-      <c r="I19" s="6"/>
-      <c r="J19" s="6"/>
-      <c r="K19" s="22"/>
-      <c r="L19" s="22"/>
-      <c r="N19" s="7"/>
-      <c r="O19" s="7"/>
-      <c r="P19" s="24"/>
-      <c r="Q19" s="24"/>
-      <c r="S19" s="8"/>
-      <c r="T19" s="25"/>
-      <c r="U19" s="25"/>
-    </row>
-    <row r="20" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A20" s="2"/>
-      <c r="B20" s="18"/>
-      <c r="C20" s="18"/>
-      <c r="E20" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="F20" s="20">
-        <v>21</v>
-      </c>
-      <c r="G20" s="20"/>
-      <c r="I20" s="6"/>
-      <c r="J20" s="6"/>
-      <c r="K20" s="22"/>
-      <c r="L20" s="22"/>
-      <c r="N20" s="7"/>
-      <c r="O20" s="7"/>
-      <c r="P20" s="24"/>
-      <c r="Q20" s="24"/>
-      <c r="S20" s="8"/>
-      <c r="T20" s="25"/>
-      <c r="U20" s="25"/>
-    </row>
-    <row r="21" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A21" s="2"/>
-      <c r="B21" s="18"/>
-      <c r="C21" s="18"/>
-      <c r="E21" s="5"/>
-      <c r="F21" s="20"/>
-      <c r="G21" s="20"/>
-      <c r="I21" s="6"/>
-      <c r="J21" s="6"/>
-      <c r="K21" s="22"/>
-      <c r="L21" s="22"/>
-      <c r="N21" s="7"/>
-      <c r="O21" s="7"/>
-      <c r="P21" s="24"/>
-      <c r="Q21" s="24"/>
-      <c r="S21" s="8"/>
-      <c r="T21" s="25"/>
-      <c r="U21" s="25"/>
-    </row>
-    <row r="22" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A22" s="2"/>
-      <c r="B22" s="18"/>
-      <c r="C22" s="18"/>
-      <c r="E22" s="5"/>
-      <c r="F22" s="20"/>
-      <c r="G22" s="20"/>
-      <c r="I22" s="6"/>
-      <c r="J22" s="6"/>
-      <c r="K22" s="22"/>
-      <c r="L22" s="22"/>
-      <c r="N22" s="7"/>
-      <c r="O22" s="7"/>
-      <c r="P22" s="24"/>
-      <c r="Q22" s="24"/>
-      <c r="S22" s="8"/>
-      <c r="T22" s="25"/>
-      <c r="U22" s="25"/>
-    </row>
-    <row r="23" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A23" s="10" t="s">
-        <v>45</v>
-      </c>
-      <c r="B23" s="19">
+      <c r="B23" s="40">
         <f>SUM(B11:B22)</f>
-        <v>2030</v>
-      </c>
-      <c r="C23" s="19">
-        <f>SUM(C11:C22)</f>
+        <v>5700</v>
+      </c>
+      <c r="C23" s="40">
+        <f ca="1">SUM(C11:C22)</f>
+        <v>5655.5</v>
+      </c>
+      <c r="D23" s="48">
+        <f ca="1">SUM(D11:D22)</f>
+        <v>-44.5</v>
+      </c>
+      <c r="F23" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="G23" s="42">
+        <f>SUM(G11:G22)</f>
+        <v>3800</v>
+      </c>
+      <c r="H23" s="42">
+        <f>SUM(H11:H22)</f>
+        <v>4810</v>
+      </c>
+      <c r="I23" s="42">
+        <f>SUM(I11:I22)</f>
+        <v>-1010</v>
+      </c>
+      <c r="K23" s="12" t="s">
+        <v>39</v>
+      </c>
+      <c r="L23" s="12"/>
+      <c r="M23" s="44">
+        <f>SUM(M11:M22)</f>
+        <v>1745</v>
+      </c>
+      <c r="N23" s="44">
+        <f>SUM(N11:N22)</f>
         <v>0</v>
       </c>
-      <c r="E23" s="11" t="s">
-        <v>45</v>
-      </c>
-      <c r="F23" s="21">
-        <f>SUM(F11:F22)</f>
-        <v>1610</v>
-      </c>
-      <c r="G23" s="21">
-        <f>SUM(G11:G22)</f>
+      <c r="P23" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="Q23" s="11"/>
+      <c r="R23" s="42">
+        <f>SUM(R11:R22)</f>
+        <v>93.67</v>
+      </c>
+      <c r="S23" s="42">
+        <f>SUM(S11:S22)</f>
         <v>0</v>
       </c>
-      <c r="I23" s="12" t="s">
-        <v>45</v>
-      </c>
-      <c r="J23" s="12"/>
-      <c r="K23" s="23">
-        <f>SUM(K11:K22)</f>
-        <v>529</v>
-      </c>
-      <c r="L23" s="23">
-        <f>SUM(L11:L22)</f>
-        <v>0</v>
-      </c>
-      <c r="N23" s="11" t="s">
-        <v>45</v>
-      </c>
-      <c r="O23" s="11"/>
-      <c r="P23" s="21">
-        <f>SUM(P11:P22)</f>
-        <v>21.5</v>
-      </c>
-      <c r="Q23" s="21">
-        <f>SUM(Q11:Q22)</f>
-        <v>0</v>
-      </c>
-      <c r="S23" s="13" t="s">
-        <v>45</v>
-      </c>
-      <c r="T23" s="26">
-        <f>SUM(T11:T22)</f>
-        <v>300</v>
-      </c>
-      <c r="U23" s="26">
-        <f>SUM(U11:U22)</f>
-        <v>0</v>
+      <c r="U23" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="V23" s="46">
+        <f>SUM(V11:V22)</f>
+        <v>1900</v>
+      </c>
+      <c r="W23" s="46">
+        <f>SUM(W11:W22)</f>
+        <v>1000</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="5">
-    <mergeCell ref="E9:G9"/>
-    <mergeCell ref="I9:L9"/>
-    <mergeCell ref="N9:Q9"/>
-    <mergeCell ref="A9:C9"/>
-    <mergeCell ref="S9:U9"/>
+  <mergeCells count="7">
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A2:D2"/>
+    <mergeCell ref="A9:D9"/>
+    <mergeCell ref="F9:I9"/>
+    <mergeCell ref="K9:N9"/>
+    <mergeCell ref="P9:S9"/>
+    <mergeCell ref="U9:W9"/>
   </mergeCells>
   <conditionalFormatting sqref="B7:D7">
-    <cfRule type="cellIs" dxfId="2" priority="2" operator="lessThan">
+    <cfRule type="cellIs" dxfId="1" priority="2" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J11:J22">
+  <conditionalFormatting sqref="L11:L22">
     <cfRule type="cellIs" dxfId="0" priority="1" operator="lessThan">
       <formula>45636</formula>
     </cfRule>
